--- a/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
+++ b/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
@@ -20,9 +20,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺東縣池上鄉萬福段10370000地號</t>
+  </si>
+  <si>
+    <t>臺東縣池上鄉萬福段10360000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市裕民段04660000地號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市新田段06440000地號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市新田段06420000地號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市新田段06430000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>100000分之10019</t>
+  </si>
+  <si>
+    <t>林正二</t>
+  </si>
+  <si>
+    <t>92年12月29日</t>
+  </si>
+  <si>
+    <t>88年02月06日</t>
+  </si>
+  <si>
+    <t>98年05月12曰</t>
+  </si>
+  <si>
+    <t>98年05月12日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>1lit貝買</t>
+  </si>
+  <si>
+    <t>11rt■■貝買</t>
+  </si>
+  <si>
+    <t>r=t=r貝買</t>
+  </si>
+  <si>
+    <t>1035000</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-07-11</t>
+  </si>
+  <si>
+    <t>tmp685a1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,85 +151,28 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺東縣池上鄉萬福段1037-0000 地號</t>
-  </si>
-  <si>
-    <t>臺東縣池上鄉萬福段1036-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段0466-0000 地號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市新田段0644-0000 地號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市新田段0642-0000 地號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市新田段0643-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100000 分 之 10019</t>
-  </si>
-  <si>
-    <t>林正二</t>
-  </si>
-  <si>
-    <t>92年12月 29日</t>
-  </si>
-  <si>
-    <t>88年02月 06日</t>
-  </si>
-  <si>
-    <t>98年05月 12曰</t>
-  </si>
-  <si>
-    <t>98年05月 12日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>1 l i t 貝買</t>
-  </si>
-  <si>
-    <t>1 1 r t ■■ 貝買</t>
-  </si>
-  <si>
-    <t>r=t=r 貝買</t>
-  </si>
-  <si>
-    <t>1’035，000</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺東縣池上鄉萬福段00026-000 建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段02186-000 建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段02187-000 建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段02188-000 建號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市新田段00060-000 建號</t>
+    <t>臺東縣池上鄉萬福段00026000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市裕民段02186000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市裕民段02187000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市裕民段02188000建號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市新田段00060000建號</t>
   </si>
   <si>
     <t>全部卜</t>
   </si>
   <si>
-    <t>99年07月 22日</t>
-  </si>
-  <si>
-    <t>r 1 "i"! -=£=r 貝貝</t>
+    <t>99年07月22日</t>
+  </si>
+  <si>
+    <t>r1"i"!=£=r貝貝</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -133,22 +184,22 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>TOYOTA (汽車）</t>
-  </si>
-  <si>
-    <t>NISSAN (汽車）</t>
-  </si>
-  <si>
-    <t>93年08月 05日</t>
-  </si>
-  <si>
-    <t>99年02月 09日</t>
-  </si>
-  <si>
-    <t>1，090，000</t>
-  </si>
-  <si>
-    <t>1，000，000</t>
+    <t>TOYOTA(汽車）</t>
+  </si>
+  <si>
+    <t>NISSAN(汽車）</t>
+  </si>
+  <si>
+    <t>93年08月05日</t>
+  </si>
+  <si>
+    <t>99年02月09日</t>
+  </si>
+  <si>
+    <t>1090000</t>
+  </si>
+  <si>
+    <t>1000000</t>
   </si>
   <si>
     <t>幣別</t>
@@ -175,19 +226,19 @@
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/</t>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>保 險公司</t>
+    <t>保險公司</t>
   </si>
   <si>
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>保 險名稱</t>
+    <t>保險名稱</t>
   </si>
   <si>
     <t>生存還本保險</t>
@@ -199,7 +250,7 @@
     <t>要保人</t>
   </si>
   <si>
-    <t>備 註</t>
+    <t>備註</t>
   </si>
   <si>
     <t>債務人</t>
@@ -220,22 +271,22 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>臺灣土地銀行台東分行 臺東縣台東市中華路1段 357號</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行花蓮分行 花蓮縣花蓮市中山路356號</t>
-  </si>
-  <si>
-    <t>華南商業銀行花蓮分行 花蓮縣花蓮市中山路78號</t>
-  </si>
-  <si>
-    <t>83年04月 30日</t>
-  </si>
-  <si>
-    <t>88年04月 07日</t>
-  </si>
-  <si>
-    <t>88年04月 01日</t>
+    <t>臺灣土地銀行台東分行臺東縣台東市中華路1段357號</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行花蓮分行花蓮縣花蓮市中山路356號</t>
+  </si>
+  <si>
+    <t>華南商業銀行花蓮分行花蓮縣花蓮市中山路78號</t>
+  </si>
+  <si>
+    <t>83年04月30日</t>
+  </si>
+  <si>
+    <t>88年04月07日</t>
+  </si>
+  <si>
+    <t>88年04月01日</t>
   </si>
 </sst>
 </file>
@@ -594,13 +645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,161 +673,308 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>11.22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2">
         <v>40000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>788</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>88.56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>788</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>690</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>788</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>5503.57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>788</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1517.68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>788</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>260.41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2">
         <v>500000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2">
+        <v>788</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -794,25 +992,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -820,22 +1018,22 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>152.26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
         <v>4000000</v>
@@ -846,22 +1044,22 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>208.23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2">
         <v>6000000</v>
@@ -872,22 +1070,22 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>149.83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
         <v>4900000</v>
@@ -898,22 +1096,22 @@
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>56.67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2">
         <v>200000</v>
@@ -924,22 +1122,22 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>119.14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2">
         <v>900000</v>
@@ -960,22 +1158,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -983,22 +1181,22 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>2995</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1006,22 +1204,22 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>3498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1039,13 +1237,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1053,10 +1251,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>150000</v>
@@ -1077,19 +1275,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1097,16 +1295,16 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
         <v>870320</v>
@@ -1127,16 +1325,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1144,16 +1342,16 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1161,13 +1359,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1176,13 +1374,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1201,22 +1399,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1224,22 +1422,22 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>159006</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1247,22 +1445,22 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>3408061</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1270,22 +1468,22 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
         <v>2541362</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
+++ b/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺東縣池上鄉萬福段10370000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺東縣池上鄉萬福段10360000地號</t>
@@ -103,12 +106,12 @@
     <t>98年05月12日</t>
   </si>
   <si>
+    <t>1lit貝買</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>1lit貝買</t>
-  </si>
-  <si>
     <t>11rt■■貝買</t>
   </si>
   <si>
@@ -130,30 +133,12 @@
     <t>tmp685a1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺東縣池上鄉萬福段00026000建號</t>
   </si>
   <si>
+    <t>r1"i"!=£=r貝貝</t>
+  </si>
+  <si>
     <t>花蓮縣花蓮市裕民段02186000建號</t>
   </si>
   <si>
@@ -172,115 +157,67 @@
     <t>99年07月22日</t>
   </si>
   <si>
-    <t>r1"i"!=£=r貝貝</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>TOYOTA(汽車）</t>
   </si>
   <si>
+    <t>93年08月05日</t>
+  </si>
+  <si>
+    <t>1090000</t>
+  </si>
+  <si>
     <t>NISSAN(汽車）</t>
   </si>
   <si>
-    <t>93年08月05日</t>
-  </si>
-  <si>
     <t>99年02月09日</t>
   </si>
   <si>
-    <t>1090000</t>
-  </si>
-  <si>
     <t>1000000</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
+    <t>保險名稱</t>
+  </si>
+  <si>
+    <t>要保人</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
     <t>生存還本保險</t>
   </si>
   <si>
     <t>年金保險</t>
   </si>
   <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>臺灣土地銀行台東分行臺東縣台東市中華路1段357號</t>
   </si>
   <si>
+    <t>83年04月30日</t>
+  </si>
+  <si>
     <t>臺灣土地銀行花蓮分行花蓮縣花蓮市中山路356號</t>
   </si>
   <si>
     <t>華南商業銀行花蓮分行花蓮縣花蓮市中山路78號</t>
-  </si>
-  <si>
-    <t>83年04月30日</t>
   </si>
   <si>
     <t>88年04月07日</t>
@@ -645,13 +582,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,287 +631,276 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>11.22</v>
+        <v>88.56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2">
-        <v>40000</v>
+        <v>250000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>788</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>88.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>690</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>88.56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2">
-        <v>250000</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>788</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.10019</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>69.1311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>690</v>
+        <v>5503.57</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1500000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>788</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5503.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>5503.57</v>
+        <v>1517.68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="2">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2">
         <v>788</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1517.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1517.68</v>
+        <v>260.41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2">
         <v>500000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2">
         <v>788</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>260.41</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2">
-        <v>500000</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="2">
-        <v>788</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="2">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +910,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -992,154 +918,128 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C1" s="1">
+        <v>152.26</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
+      <c r="H1" s="1">
+        <v>4000000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2">
+        <v>208.23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2">
-        <v>152.26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
+        <v>149.83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2">
-        <v>208.23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2">
-        <v>6000000</v>
+        <v>4900000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
-        <v>149.83</v>
+        <v>56.67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2">
-        <v>4900000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
-        <v>56.67</v>
+        <v>119.14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2">
-        <v>119.14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2">
         <v>900000</v>
       </c>
     </row>
@@ -1149,6 +1049,173 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2995</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3498</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1">
+        <v>870320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1158,332 +1225,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="1">
+        <v>159006</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2995</v>
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3408061</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3498</v>
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2541362</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2">
-        <v>870320</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>83</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>93</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2">
-        <v>159006</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>94</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3408061</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>95</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2541362</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
+++ b/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺東縣池上鄉萬福段10370000地號</t>
+  </si>
+  <si>
     <t>臺東縣池上鄉萬福段10360000地號</t>
   </si>
   <si>
@@ -106,12 +109,12 @@
     <t>98年05月12日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>1lit貝買</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>11rt■■貝買</t>
   </si>
   <si>
@@ -136,25 +139,25 @@
     <t>臺東縣池上鄉萬福段00026000建號</t>
   </si>
   <si>
+    <t>花蓮縣花蓮市裕民段02186000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市裕民段02187000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市裕民段02188000建號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市新田段00060000建號</t>
+  </si>
+  <si>
+    <t>全部卜</t>
+  </si>
+  <si>
+    <t>99年07月22日</t>
+  </si>
+  <si>
     <t>r1"i"!=£=r貝貝</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段02186000建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段02187000建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段02188000建號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市新田段00060000建號</t>
-  </si>
-  <si>
-    <t>全部卜</t>
-  </si>
-  <si>
-    <t>99年07月22日</t>
   </si>
   <si>
     <t>TOYOTA(汽車）</t>
@@ -582,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,266 +643,319 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>88.56</v>
+        <v>11.22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2">
-        <v>250000</v>
+        <v>40000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>788</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>88.56</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>690</v>
+        <v>88.56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H3" s="2">
+        <v>250000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>788</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.10019</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>69.1311</v>
+        <v>88.56</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>5503.57</v>
+        <v>690</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1500000</v>
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>788</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.10019</v>
       </c>
       <c r="Q4" s="2">
-        <v>5503.57</v>
+        <v>69.1311</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1517.68</v>
+        <v>5503.57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>788</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>1517.68</v>
+        <v>5503.57</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>260.41</v>
+        <v>1517.68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2">
         <v>500000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>788</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
+        <v>1517.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>260.41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2">
+        <v>500000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>788</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>260.41</v>
       </c>
     </row>
@@ -910,137 +966,325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
         <v>152.26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2">
-        <v>208.23</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>4000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>788</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>152.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2">
+        <v>208.23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>149.83</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="2">
-        <v>4900000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>6000000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>788</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>208.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
-        <v>56.67</v>
+        <v>149.83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>4900000</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>788</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>26</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>149.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
-        <v>119.14</v>
+        <v>56.67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="2">
+        <v>200000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>788</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>27</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>56.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2">
+        <v>119.14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2">
         <v>900000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>788</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>28</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>119.14</v>
       </c>
     </row>
   </sheetData>
@@ -1049,173 +1293,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2995</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3498</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1">
-        <v>150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1">
-        <v>870320</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1225,68 +1302,332 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2995</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2995</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3498</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1">
+        <v>870320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2">
+        <v>870320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1">
         <v>159006</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2">
+        <v>159006</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3408061</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="2">
-        <v>2541362</v>
+        <v>3408061</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2541362</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
+++ b/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -160,19 +160,22 @@
     <t>r1"i"!=£=r貝貝</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>TOYOTA(汽車）</t>
   </si>
   <si>
+    <t>NISSAN(汽車）</t>
+  </si>
+  <si>
     <t>93年08月05日</t>
   </si>
   <si>
+    <t>99年02月09日</t>
+  </si>
+  <si>
     <t>1090000</t>
-  </si>
-  <si>
-    <t>NISSAN(汽車）</t>
-  </si>
-  <si>
-    <t>99年02月09日</t>
   </si>
   <si>
     <t>1000000</t>
@@ -1294,38 +1297,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1">
-        <v>2995</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>2995</v>
@@ -1334,21 +1358,42 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>788</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>3498</v>
@@ -1363,7 +1408,28 @@
         <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>788</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1447,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -1395,7 +1461,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1419,13 +1485,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -1439,13 +1505,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1469,16 +1535,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1486,16 +1552,16 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1503,10 +1569,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -1518,10 +1584,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -1543,22 +1609,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1">
         <v>159006</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1566,22 +1632,22 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2">
         <v>159006</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1589,22 +1655,22 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2">
         <v>3408061</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1612,22 +1678,22 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2">
         <v>2541362</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
+++ b/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,9 @@
     <t>r1"i"!=£=r貝貝</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t>1000000</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -1051,7 +1057,7 @@
         <v>4000000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>35</v>
@@ -1104,7 +1110,7 @@
         <v>6000000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>35</v>
@@ -1157,7 +1163,7 @@
         <v>4900000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>35</v>
@@ -1210,7 +1216,7 @@
         <v>200000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>35</v>
@@ -1263,7 +1269,7 @@
         <v>900000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>35</v>
@@ -1308,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1349,7 +1355,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>2995</v>
@@ -1358,16 +1364,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -1393,7 +1399,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
         <v>3498</v>
@@ -1402,16 +1408,16 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>35</v>
@@ -1447,7 +1453,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -1461,7 +1467,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1485,13 +1491,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -1505,13 +1511,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1535,16 +1541,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1552,16 +1558,16 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1569,10 +1575,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -1584,10 +1590,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -1609,22 +1615,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>159006</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1632,22 +1638,22 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2">
         <v>159006</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1655,22 +1661,22 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2">
         <v>3408061</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1678,22 +1684,22 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2">
         <v>2541362</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
+++ b/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -187,13 +187,28 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1445,35 +1460,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>150000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>788</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1483,47 +1540,89 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1">
-        <v>870320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>870320</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>788</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1541,16 +1640,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1558,16 +1657,16 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1575,10 +1674,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -1590,10 +1689,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -1615,22 +1714,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1">
         <v>159006</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1638,22 +1737,22 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2">
         <v>159006</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1661,22 +1760,22 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2">
         <v>3408061</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1684,22 +1783,22 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2">
         <v>2541362</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
+++ b/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
@@ -12,7 +12,7 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="現金" sheetId="4" r:id="rId4"/>
     <sheet name="存款" sheetId="5" r:id="rId5"/>
-    <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
     <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -115,7 +115,7 @@
     <t>1lit貝買</t>
   </si>
   <si>
-    <t>11rt■■貝買</t>
+    <t>11rt貝買</t>
   </si>
   <si>
     <t>r=t=r貝買</t>
@@ -209,18 +209,6 @@
   </si>
   <si>
     <t>deposit</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1632,13 +1620,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1646,15 +1634,12 @@
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>63</v>
@@ -1663,41 +1648,22 @@
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>83</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1714,22 +1680,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1">
         <v>159006</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1737,22 +1703,22 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2">
         <v>159006</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1760,22 +1726,22 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2">
         <v>3408061</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1783,22 +1749,22 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F4" s="2">
         <v>2541362</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
+++ b/legislator/property/output/normal/林正二_2013-07-11_財產申報表_tmp685a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -211,6 +211,9 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
@@ -220,25 +223,37 @@
     <t>年金保險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>臺灣土地銀行台東分行臺東縣台東市中華路1段357號</t>
   </si>
   <si>
+    <t>臺灣土地銀行花蓮分行花蓮縣花蓮市中山路356號</t>
+  </si>
+  <si>
+    <t>華南商業銀行花蓮分行花蓮縣花蓮市中山路78號</t>
+  </si>
+  <si>
     <t>83年04月30日</t>
   </si>
   <si>
-    <t>臺灣土地銀行花蓮分行花蓮縣花蓮市中山路356號</t>
-  </si>
-  <si>
-    <t>華南商業銀行花蓮分行花蓮縣花蓮市中山路78號</t>
-  </si>
-  <si>
     <t>88年04月07日</t>
   </si>
   <si>
     <t>88年04月01日</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1620,49 +1635,112 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>788</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
+        <v>788</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1672,99 +1750,183 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1">
-        <v>159006</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="2">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2">
         <v>159006</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>788</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="2">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2">
         <v>3408061</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>788</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2541362</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="2">
-        <v>2541362</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>72</v>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>788</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
